--- a/biology/Médecine/DeWitt_Stetten_Jr/DeWitt_Stetten_Jr..xlsx
+++ b/biology/Médecine/DeWitt_Stetten_Jr/DeWitt_Stetten_Jr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dewitt Stetten Jr. (31 mai 1909 - 28 août 1990) est un biochimiste américain[1],[2],[3]. Il était doyen de la faculté de médecine de l'Université Rutgers[1],[2], président de la Fondation pour l'enseignement supérieur dans les sciences[1], et membre de l'Académie nationale des sciences[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dewitt Stetten Jr. (31 mai 1909 - 28 août 1990) est un biochimiste américain. Il était doyen de la faculté de médecine de l'Université Rutgers président de la Fondation pour l'enseignement supérieur dans les sciences, et membre de l'Académie nationale des sciences. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 31 mai 1909 à New York, il obtient son AB en 1930 à l'Harvard College[3], son MD en 1934 à l'Université Columbia[3] puis son Ph.D. en biochimie à l'Université Columbia en 1940[3].
-En 1962, il est nommé doyen de la faculté de médecine de l'Université Rutgers[2], puis est élu à l'Académie nationale des sciences en
-1974[3].
-Une collection de ses papiers est conservée à la National Library of Medicine à Bethesda, dans le Maryland[4]. Il était marié à sa collègue biochimiste Marjorie Roloff Stetten[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 31 mai 1909 à New York, il obtient son AB en 1930 à l'Harvard College, son MD en 1934 à l'Université Columbia puis son Ph.D. en biochimie à l'Université Columbia en 1940.
+En 1962, il est nommé doyen de la faculté de médecine de l'Université Rutgers, puis est élu à l'Académie nationale des sciences en
+1974.
+Une collection de ses papiers est conservée à la National Library of Medicine à Bethesda, dans le Maryland. Il était marié à sa collègue biochimiste Marjorie Roloff Stetten.
 </t>
         </is>
       </c>
